--- a/project1/data/books_usage_sample.xlsx
+++ b/project1/data/books_usage_sample.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8485" uniqueCount="3316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8483" uniqueCount="3393">
   <si>
     <t xml:space="preserve">2023-09-18 06:28:49</t>
   </si>
@@ -10643,6 +10643,237 @@
   </si>
   <si>
     <t xml:space="preserve">2023-01-16 10:57:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdul rahoof s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinand c. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay pradeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhil vasim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhila s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhiya a.r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan syed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amritha raju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amrutha p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagha rajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anas a s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anu sasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anuja mohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anuroopa g nadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arjun v.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun k unni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun paulose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arunkumar b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya k r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya krishna a r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya v. V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asha v s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwini jayachandran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwini k.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswathy t r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athira h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athira t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishmitha k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinchu e.r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delphin r. D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Achuthsankar s. Nair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Oommen v oommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayathri d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayathri thampi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopika rani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gowri k babu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junaida m i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lekshmi s nair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liya simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madeena s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manumol m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammed hakkim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammed minhaju a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neema m p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neenu mohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parvathi jayaraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parvathy suresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preetha p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rani j.r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raniya k zubair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rashmi sukumaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saleena younus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salil suresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sameera k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhya k. S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saranya s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saraswathy v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarath kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahana s j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahina k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shajila salim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanitha a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheeba k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siva priya p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreejith g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreelekshmi i.g.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunitha p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suveena s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swathi k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijayalekshmi b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinni n g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinod m.p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnu v j</t>
   </si>
 </sst>
 </file>
@@ -10766,7 +10997,7 @@
   <dimension ref="A1:E1291"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B144" activeCellId="0" sqref="B144"/>
+      <selection pane="topLeft" activeCell="A1210" activeCellId="0" sqref="A1210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32741,8 +32972,8 @@
   </sheetPr>
   <dimension ref="A1:B967"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40502,784 +40733,485 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>3316</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>42</v>
+      <c r="A3" s="0" t="s">
+        <v>3317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>85</v>
+      <c r="A4" s="0" t="s">
+        <v>3318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>99</v>
+      <c r="A5" s="0" t="s">
+        <v>3319</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>122</v>
+      <c r="A6" s="0" t="s">
+        <v>3320</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>170</v>
+      <c r="A7" s="0" t="s">
+        <v>3321</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>252</v>
+      <c r="A8" s="0" t="s">
+        <v>3322</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>317</v>
+      <c r="A9" s="0" t="s">
+        <v>3323</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>421</v>
+      <c r="A10" s="0" t="s">
+        <v>3324</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>458</v>
+      <c r="A11" s="0" t="s">
+        <v>3325</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>472</v>
+      <c r="A12" s="0" t="s">
+        <v>3326</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>521</v>
+      <c r="A13" s="0" t="s">
+        <v>3327</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>578</v>
+      <c r="A14" s="0" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>599</v>
+      <c r="A15" s="0" t="s">
+        <v>3328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>614</v>
+      <c r="A16" s="0" t="s">
+        <v>3329</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>636</v>
+      <c r="A17" s="0" t="s">
+        <v>3330</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>668</v>
+      <c r="A18" s="0" t="s">
+        <v>3331</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>762</v>
+      <c r="A19" s="0" t="s">
+        <v>3332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>773</v>
+      <c r="A20" s="0" t="s">
+        <v>3333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>795</v>
+      <c r="A21" s="0" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>852</v>
+      <c r="A22" s="0" t="s">
+        <v>3334</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>864</v>
+      <c r="A23" s="0" t="s">
+        <v>3335</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>881</v>
+      <c r="A24" s="0" t="s">
+        <v>3336</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>913</v>
+      <c r="A25" s="0" t="s">
+        <v>3337</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>936</v>
+      <c r="A26" s="0" t="s">
+        <v>3338</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>1041</v>
+      <c r="A27" s="0" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>1073</v>
+      <c r="A28" s="0" t="s">
+        <v>3339</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>1079</v>
+      <c r="A29" s="0" t="s">
+        <v>3340</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>1085</v>
+      <c r="A30" s="0" t="s">
+        <v>3341</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>1134</v>
+      <c r="A31" s="0" t="s">
+        <v>3342</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>1165</v>
+      <c r="A32" s="0" t="s">
+        <v>3343</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>1174</v>
+      <c r="A33" s="0" t="s">
+        <v>3344</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>1214</v>
+      <c r="A34" s="0" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>1280</v>
+      <c r="A35" s="0" t="s">
+        <v>3345</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>1290</v>
+      <c r="A36" s="0" t="s">
+        <v>3346</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>1304</v>
+      <c r="A37" s="0" t="s">
+        <v>3347</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>1335</v>
+      <c r="A38" s="0" t="s">
+        <v>1382</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>1382</v>
+      <c r="A39" s="0" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>1407</v>
+      <c r="A40" s="0" t="s">
+        <v>3348</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>1422</v>
+      <c r="A41" s="0" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>1440</v>
+      <c r="A42" s="0" t="s">
+        <v>3349</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>1452</v>
+      <c r="A43" s="0" t="s">
+        <v>3350</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>1770</v>
+      <c r="A44" s="0" t="s">
+        <v>3351</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>1778</v>
+      <c r="A45" s="0" t="s">
+        <v>3352</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>1798</v>
+      <c r="A46" s="0" t="s">
+        <v>3353</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>1831</v>
+      <c r="A47" s="0" t="s">
+        <v>3354</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>1896</v>
+      <c r="A48" s="0" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>1932</v>
+      <c r="A49" s="0" t="s">
+        <v>3355</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>1951</v>
+      <c r="A50" s="0" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>1959</v>
+      <c r="A51" s="0" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>1987</v>
+      <c r="A52" s="0" t="s">
+        <v>3356</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>2000</v>
+      <c r="A53" s="0" t="s">
+        <v>2020</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>2020</v>
+      <c r="A54" s="0" t="s">
+        <v>3357</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>2033</v>
+      <c r="A55" s="0" t="s">
+        <v>3358</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>2067</v>
+      <c r="A56" s="0" t="s">
+        <v>3359</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>2075</v>
+      <c r="A57" s="0" t="s">
+        <v>3360</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>2145</v>
+      <c r="A58" s="0" t="s">
+        <v>3361</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>2148</v>
+      <c r="A59" s="0" t="s">
+        <v>3362</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>2157</v>
+      <c r="A60" s="0" t="s">
+        <v>3363</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>2163</v>
+      <c r="A61" s="0" t="s">
+        <v>2215</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>2215</v>
+      <c r="A62" s="0" t="s">
+        <v>3364</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>2218</v>
+      <c r="A63" s="0" t="s">
+        <v>3365</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>2245</v>
+      <c r="A64" s="0" t="s">
+        <v>3366</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>2334</v>
+      <c r="A65" s="0" t="s">
+        <v>3367</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>2356</v>
+      <c r="A66" s="0" t="s">
+        <v>3368</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>2430</v>
+      <c r="A67" s="0" t="s">
+        <v>3369</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>2533</v>
+      <c r="A68" s="0" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>2553</v>
+      <c r="A69" s="0" t="s">
+        <v>3370</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>2559</v>
+      <c r="A70" s="0" t="s">
+        <v>3371</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>2565</v>
+      <c r="A71" s="0" t="s">
+        <v>3372</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>2586</v>
+      <c r="A72" s="0" t="s">
+        <v>3373</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>2590</v>
+      <c r="A73" s="0" t="s">
+        <v>3374</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>2600</v>
+      <c r="A74" s="0" t="s">
+        <v>3375</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>2616</v>
+      <c r="A75" s="0" t="s">
+        <v>3376</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>2674</v>
+      <c r="A76" s="0" t="s">
+        <v>2679</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>2679</v>
+      <c r="A77" s="0" t="s">
+        <v>3377</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>2690</v>
+      <c r="A78" s="0" t="s">
+        <v>3378</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>2695</v>
+      <c r="A79" s="0" t="s">
+        <v>3379</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>2701</v>
+      <c r="A80" s="0" t="s">
+        <v>3380</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>2761</v>
+      <c r="A81" s="0" t="s">
+        <v>3381</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>2931</v>
+      <c r="A82" s="0" t="s">
+        <v>3382</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>2940</v>
+      <c r="A83" s="0" t="s">
+        <v>3383</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>2951</v>
+      <c r="A84" s="0" t="s">
+        <v>3384</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>3008</v>
+      <c r="A85" s="0" t="s">
+        <v>3385</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>3019</v>
+      <c r="A86" s="0" t="s">
+        <v>3386</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>3034</v>
+      <c r="A87" s="0" t="s">
+        <v>3387</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>3133</v>
+      <c r="A88" s="0" t="s">
+        <v>3388</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>3138</v>
+      <c r="A89" s="0" t="s">
+        <v>3166</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>3153</v>
+      <c r="A90" s="0" t="s">
+        <v>3389</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>3166</v>
+      <c r="A91" s="0" t="s">
+        <v>3390</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>3184</v>
+      <c r="A92" s="0" t="s">
+        <v>3391</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>3195</v>
+      <c r="A93" s="0" t="s">
+        <v>3258</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>3289</v>
+      <c r="A94" s="0" t="s">
+        <v>3392</v>
       </c>
     </row>
   </sheetData>

--- a/project1/data/books_usage_sample.xlsx
+++ b/project1/data/books_usage_sample.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8483" uniqueCount="3393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8478" uniqueCount="3388">
   <si>
     <t xml:space="preserve">2023-09-18 06:28:49</t>
   </si>
@@ -86,6 +86,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">അമര്‍നാഥ് ഗുഹയിലേക്ക് </t>
     </r>
@@ -94,6 +95,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">| Amarnath Guhayilekku</t>
     </r>
@@ -164,6 +166,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">പിതാമഹന്‍ </t>
     </r>
@@ -172,6 +175,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Pithamahan</t>
     </r>
@@ -272,6 +276,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Tharippu (</t>
     </r>
@@ -280,6 +285,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">തരിപ്പ് </t>
     </r>
@@ -288,6 +294,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -634,6 +641,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> രണ്ടാമൂഴം  </t>
     </r>
@@ -642,6 +650,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -667,6 +676,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Manj </t>
     </r>
@@ -675,6 +685,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">മഞ്ഞ്</t>
     </r>
@@ -916,6 +927,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Oru Theruvinte Katha </t>
     </r>
@@ -924,6 +936,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ഒരു തെരുവിന്റെ കഥ</t>
     </r>
@@ -1420,6 +1433,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Vanaprastham </t>
     </r>
@@ -1428,6 +1442,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">വാനപ്രസ്ഥം</t>
     </r>
@@ -1492,6 +1507,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Agnichirakukal </t>
     </r>
@@ -1500,6 +1516,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">അഗ്നിച്ചിറകുകൾ </t>
     </r>
@@ -1525,6 +1542,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">യുയുത്സു</t>
     </r>
@@ -1533,6 +1551,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=yuyuttsu</t>
     </r>
@@ -1624,6 +1643,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Balyakala Sakhi / </t>
     </r>
@@ -1632,6 +1652,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ബാല്യകാല സഖി</t>
     </r>
@@ -1879,6 +1900,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> അച്ഛ൯ പിറന്ന വീട്  </t>
     </r>
@@ -1887,6 +1909,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Achan piranna veedu </t>
     </r>
@@ -1903,13 +1926,14 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">വിഡ്ഢികളുടെ സ</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">」</t>
@@ -1919,6 +1943,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ർഗ്ഗം  </t>
     </r>
@@ -2403,6 +2428,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Yathi : Velicham Vitharunna Vicharangal / </t>
     </r>
@@ -2411,6 +2437,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">യതി </t>
     </r>
@@ -2419,6 +2446,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -2427,6 +2455,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">വെളിച്ചം വിതറുന്ന വിചാരങ്ങൾ</t>
     </r>
@@ -2461,6 +2490,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  എന്റെ ജീവിതകഥ  </t>
     </r>
@@ -2469,6 +2499,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">( Ente Jeevitha Kadha)</t>
     </r>
@@ -2485,6 +2516,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ഞങ്ങൾക്കിത്രയൊക്കെ മതിയോ </t>
     </r>
@@ -2493,6 +2525,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">? ( Njangalkkithrayoke Mathiyo ? )</t>
     </r>
@@ -2509,6 +2542,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Valiya hridayam = </t>
     </r>
@@ -2517,6 +2551,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">വലിയ ഹൃദയം </t>
     </r>
@@ -3193,6 +3228,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">നാലുകെട്ട് </t>
     </r>
@@ -3201,6 +3237,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">| Naalukettu </t>
     </r>
@@ -3478,6 +3515,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> ഐതിഹ്യമാല </t>
     </r>
@@ -3486,6 +3524,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Aithihyamala</t>
     </r>
@@ -3889,6 +3928,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ബിയോഇൻഫോര്മാറ്റിക്സ് </t>
     </r>
@@ -3897,6 +3937,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -3905,6 +3946,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ജൈവ വിവര സാങ്കേതിക വിദ്യയെക്കുറിച്ചു ലളിതമായി</t>
     </r>
@@ -3913,6 +3955,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3921,6 +3964,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">സമഗ്രതയോടെ </t>
     </r>
@@ -4249,6 +4293,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">അക്കപ്പോരിന്റെ ഇരുപത് നസ്രാണി വർഷങ്ങൾ </t>
     </r>
@@ -4257,6 +4302,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -5212,6 +5258,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ഇരപിടിയൻ ചെടികൾ </t>
     </r>
@@ -5220,6 +5267,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Irapidiyan chedikal</t>
     </r>
@@ -5236,6 +5284,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">കുഞ്ഞന്റെ അത്ഭുതലോകം  </t>
     </r>
@@ -5244,6 +5293,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Kunjante athbhudhalokam</t>
     </r>
@@ -6253,6 +6303,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">മഹാമാരികൾ  പ്ലേഗ് മുതൽ കോവിഡ് വരെ </t>
     </r>
@@ -6261,6 +6312,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -6269,6 +6321,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ചരിത്രം</t>
     </r>
@@ -6277,6 +6330,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6285,6 +6339,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ശാസ്ത്രം</t>
     </r>
@@ -6293,6 +6348,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6301,6 +6357,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">അതിജീവനം </t>
     </r>
@@ -6440,6 +6497,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">അറ്റുപോകാത്ത ഓർമ്മകൾ </t>
     </r>
@@ -6448,6 +6506,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Attupokatha Ormakal</t>
     </r>
@@ -6473,6 +6532,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">സൂര്യനെ അണിഞ്ഞ ഒരു സ്ത്രീ </t>
     </r>
@@ -6481,6 +6541,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">| Sooryane Aninja Oru Sthree </t>
     </r>
@@ -6677,6 +6738,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Rajiv Gandhi Vadham Maraykkappetta Ente Sathyangal ( </t>
     </r>
@@ -6685,6 +6747,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">രാജീവ് ഗാന്ധി വധം മറയ്ക്കപ്പെട്ട എന്റെ സത്യങ്ങൾ </t>
     </r>
@@ -6693,6 +6756,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -6787,6 +6851,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ikshwakuvamsathinte Yuvarajavu </t>
     </r>
@@ -6795,6 +6860,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ഇക്ഷാകുവംശത്തിന്‍റെ യുവരാജാവ് </t>
     </r>
@@ -6803,6 +6869,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -6811,6 +6878,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ചരിത്ര നോവല്‍</t>
     </r>
@@ -7616,6 +7684,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PSC </t>
     </r>
@@ -7624,6 +7693,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">നിരന്തരം ആവർത്തിക്കുന്ന </t>
     </r>
@@ -7632,6 +7702,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10,000 </t>
     </r>
@@ -7640,6 +7711,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ചോദ്യങ്ങൾ </t>
     </r>
@@ -8763,6 +8835,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Veronica Decides to Die (</t>
     </r>
@@ -8771,6 +8844,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">വെറോണിക്ക മരിക്കാൻ തീരുമാനിക്കുന്നു</t>
     </r>
@@ -8779,6 +8853,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9935,6 +10010,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ദൈവത്തിന്റെ ചാരന്മാർ  </t>
     </r>
@@ -9943,6 +10019,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Daivattinte charanmar</t>
     </r>
@@ -9959,6 +10036,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ജീവിതമെന്ന അത്ഭുതം </t>
     </r>
@@ -9967,6 +10045,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -9975,6 +10054,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ഡോ</t>
     </r>
@@ -9983,6 +10063,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -9991,6 +10072,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">വി</t>
     </r>
@@ -9999,6 +10081,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -10007,6 +10090,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">പി</t>
     </r>
@@ -10015,6 +10099,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -10023,6 +10108,7 @@
         <sz val="10"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ഗംഗാധരന്‍റെ അനുഭവങ്ങള്‍ </t>
     </r>
@@ -10031,6 +10117,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= Jeevithamenna albhuthaṃ : Dr. V. P. Gangadharante anubhavangal</t>
     </r>
@@ -10091,21 +10178,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023-01-04 10:42:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardnumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
   </si>
   <si>
     <t xml:space="preserve">2022-01-19 15:41:53</t>
@@ -10889,6 +10961,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -10912,15 +10985,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -10965,7 +11040,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -10994,16 +11071,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1291"/>
+  <dimension ref="A1:E1290"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1188" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1210" activeCellId="0" sqref="A1210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="98.92"/>
   </cols>
   <sheetData>
@@ -31582,101 +31659,101 @@
         <v>3137</v>
       </c>
       <c r="B1211" s="0" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C1211" s="0" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D1211" s="0" t="s">
         <v>3138</v>
       </c>
-      <c r="C1211" s="0" t="s">
+      <c r="E1211" s="0" t="s">
         <v>3139</v>
-      </c>
-      <c r="D1211" s="0" t="s">
-        <v>3140</v>
-      </c>
-      <c r="E1211" s="0" t="s">
-        <v>3141</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="0" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="B1212" s="0" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="C1212" s="0" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="D1212" s="0" t="s">
-        <v>3143</v>
+        <v>656</v>
       </c>
       <c r="E1212" s="0" t="s">
-        <v>3144</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="0" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="B1213" s="0" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="C1213" s="0" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="D1213" s="0" t="s">
-        <v>656</v>
+        <v>3142</v>
       </c>
       <c r="E1213" s="0" t="s">
-        <v>657</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="0" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="B1214" s="0" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="C1214" s="0" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="D1214" s="0" t="s">
-        <v>3147</v>
+        <v>1953</v>
       </c>
       <c r="E1214" s="0" t="s">
-        <v>3148</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="0" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="B1215" s="0" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="C1215" s="0" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="D1215" s="0" t="s">
-        <v>1953</v>
+        <v>3146</v>
       </c>
       <c r="E1215" s="0" t="s">
-        <v>1954</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="0" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B1216" s="0" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1216" s="0" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1216" s="0" t="s">
         <v>3150</v>
       </c>
-      <c r="B1216" s="0" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C1216" s="0" t="s">
-        <v>3139</v>
-      </c>
-      <c r="D1216" s="0" t="s">
+      <c r="E1216" s="0" t="s">
         <v>3151</v>
-      </c>
-      <c r="E1216" s="0" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31684,84 +31761,84 @@
         <v>3152</v>
       </c>
       <c r="B1217" s="0" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="C1217" s="0" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="D1217" s="0" t="s">
-        <v>3155</v>
+        <v>1573</v>
       </c>
       <c r="E1217" s="0" t="s">
-        <v>3156</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="0" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="B1218" s="0" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="C1218" s="0" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1218" s="0" t="s">
         <v>3154</v>
       </c>
-      <c r="D1218" s="0" t="s">
-        <v>1573</v>
-      </c>
       <c r="E1218" s="0" t="s">
-        <v>1574</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="0" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B1219" s="0" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1219" s="0" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1219" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E1219" s="0" t="s">
         <v>3158</v>
-      </c>
-      <c r="B1219" s="0" t="s">
-        <v>3153</v>
-      </c>
-      <c r="C1219" s="0" t="s">
-        <v>3154</v>
-      </c>
-      <c r="D1219" s="0" t="s">
-        <v>3159</v>
-      </c>
-      <c r="E1219" s="0" t="s">
-        <v>3160</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="0" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="B1220" s="0" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="C1220" s="0" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="D1220" s="0" t="s">
-        <v>3162</v>
+        <v>2159</v>
       </c>
       <c r="E1220" s="0" t="s">
-        <v>3163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="0" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B1221" s="0" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C1221" s="0" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D1221" s="0" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E1221" s="0" t="s">
         <v>3164</v>
-      </c>
-      <c r="B1221" s="0" t="s">
-        <v>3153</v>
-      </c>
-      <c r="C1221" s="0" t="s">
-        <v>3154</v>
-      </c>
-      <c r="D1221" s="0" t="s">
-        <v>2159</v>
-      </c>
-      <c r="E1221" s="0" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31769,152 +31846,152 @@
         <v>3165</v>
       </c>
       <c r="B1222" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1222" s="0" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="D1222" s="0" t="s">
-        <v>3168</v>
-      </c>
-      <c r="E1222" s="0" t="s">
-        <v>3169</v>
+        <v>963</v>
+      </c>
+      <c r="E1222" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="0" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="B1223" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1223" s="0" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D1223" s="0" t="s">
         <v>3167</v>
       </c>
-      <c r="D1223" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="E1223" s="1" t="s">
-        <v>964</v>
+      <c r="E1223" s="0" t="s">
+        <v>3168</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="0" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="B1224" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1224" s="0" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="D1224" s="0" t="s">
-        <v>3172</v>
+        <v>488</v>
       </c>
       <c r="E1224" s="0" t="s">
-        <v>3173</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="0" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="B1225" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1225" s="0" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="D1225" s="0" t="s">
-        <v>488</v>
+        <v>3171</v>
       </c>
       <c r="E1225" s="0" t="s">
-        <v>489</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="0" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="B1226" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1226" s="0" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="D1226" s="0" t="s">
-        <v>3176</v>
+        <v>1908</v>
       </c>
       <c r="E1226" s="0" t="s">
-        <v>285</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="0" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="B1227" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1227" s="0" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="D1227" s="0" t="s">
-        <v>1908</v>
+        <v>270</v>
       </c>
       <c r="E1227" s="0" t="s">
-        <v>1909</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="0" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="B1228" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1228" s="0" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="D1228" s="0" t="s">
-        <v>270</v>
+        <v>3175</v>
       </c>
       <c r="E1228" s="0" t="s">
-        <v>83</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="0" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="B1229" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="C1229" s="0" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="D1229" s="0" t="s">
-        <v>3180</v>
+        <v>1258</v>
       </c>
       <c r="E1229" s="0" t="s">
-        <v>3181</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="0" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B1230" s="0" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1230" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D1230" s="0" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E1230" s="0" t="s">
         <v>3182</v>
-      </c>
-      <c r="B1230" s="0" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C1230" s="0" t="s">
-        <v>3167</v>
-      </c>
-      <c r="D1230" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E1230" s="0" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31922,44 +31999,44 @@
         <v>3183</v>
       </c>
       <c r="B1231" s="0" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1231" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D1231" s="0" t="s">
         <v>3184</v>
       </c>
-      <c r="C1231" s="0" t="s">
+      <c r="E1231" s="0" t="s">
         <v>3185</v>
-      </c>
-      <c r="D1231" s="0" t="s">
-        <v>3186</v>
-      </c>
-      <c r="E1231" s="0" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="0" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1232" s="0" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1232" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D1232" s="0" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E1232" s="0" t="s">
         <v>3188</v>
-      </c>
-      <c r="B1232" s="0" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C1232" s="0" t="s">
-        <v>3185</v>
-      </c>
-      <c r="D1232" s="0" t="s">
-        <v>3189</v>
-      </c>
-      <c r="E1232" s="0" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="0" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B1233" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1233" s="0" t="s">
         <v>3191</v>
-      </c>
-      <c r="B1233" s="0" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C1233" s="0" t="s">
-        <v>3185</v>
       </c>
       <c r="D1233" s="0" t="s">
         <v>3192</v>
@@ -31973,214 +32050,214 @@
         <v>3194</v>
       </c>
       <c r="B1234" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1234" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1234" s="0" t="s">
-        <v>3197</v>
+        <v>3</v>
       </c>
       <c r="E1234" s="0" t="s">
-        <v>3198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="0" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="B1235" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1235" s="0" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D1235" s="0" t="s">
         <v>3196</v>
       </c>
-      <c r="D1235" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="E1235" s="0" t="s">
-        <v>4</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="0" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="B1236" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1236" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1236" s="0" t="s">
-        <v>3201</v>
+        <v>1718</v>
       </c>
       <c r="E1236" s="0" t="s">
-        <v>803</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="0" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="B1237" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1237" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1237" s="0" t="s">
-        <v>1718</v>
+        <v>3199</v>
       </c>
       <c r="E1237" s="0" t="s">
-        <v>1719</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="0" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="B1238" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1238" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1238" s="0" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="E1238" s="0" t="s">
-        <v>3205</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="0" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="B1239" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1239" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1239" s="0" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="E1239" s="0" t="s">
-        <v>3041</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="0" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="B1240" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1240" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1240" s="0" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="E1240" s="0" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="0" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="B1241" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1241" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1241" s="0" t="s">
-        <v>3211</v>
-      </c>
-      <c r="E1241" s="0" t="s">
-        <v>199</v>
+        <v>1995</v>
+      </c>
+      <c r="E1241" s="1" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="0" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="B1242" s="0" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C1242" s="0" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="D1242" s="0" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E1242" s="1" t="s">
-        <v>1996</v>
+        <v>3209</v>
+      </c>
+      <c r="E1242" s="0" t="s">
+        <v>3210</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="0" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B1243" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1243" s="0" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D1243" s="0" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E1243" s="0" t="s">
         <v>3213</v>
-      </c>
-      <c r="B1243" s="0" t="s">
-        <v>3195</v>
-      </c>
-      <c r="C1243" s="0" t="s">
-        <v>3196</v>
-      </c>
-      <c r="D1243" s="0" t="s">
-        <v>3214</v>
-      </c>
-      <c r="E1243" s="0" t="s">
-        <v>3215</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="0" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B1244" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1244" s="0" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D1244" s="0" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E1244" s="0" t="s">
         <v>3216</v>
-      </c>
-      <c r="B1244" s="0" t="s">
-        <v>3195</v>
-      </c>
-      <c r="C1244" s="0" t="s">
-        <v>3196</v>
-      </c>
-      <c r="D1244" s="0" t="s">
-        <v>3217</v>
-      </c>
-      <c r="E1244" s="0" t="s">
-        <v>3218</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="0" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B1245" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1245" s="0" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D1245" s="0" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E1245" s="0" t="s">
         <v>3219</v>
-      </c>
-      <c r="B1245" s="0" t="s">
-        <v>3195</v>
-      </c>
-      <c r="C1245" s="0" t="s">
-        <v>3196</v>
-      </c>
-      <c r="D1245" s="0" t="s">
-        <v>3220</v>
-      </c>
-      <c r="E1245" s="0" t="s">
-        <v>3221</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="0" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B1246" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1246" s="0" t="s">
         <v>3222</v>
-      </c>
-      <c r="B1246" s="0" t="s">
-        <v>3195</v>
-      </c>
-      <c r="C1246" s="0" t="s">
-        <v>3196</v>
       </c>
       <c r="D1246" s="0" t="s">
         <v>3223</v>
@@ -32194,61 +32271,61 @@
         <v>3225</v>
       </c>
       <c r="B1247" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1247" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1247" s="0" t="s">
         <v>3226</v>
       </c>
-      <c r="C1247" s="0" t="s">
+      <c r="E1247" s="0" t="s">
         <v>3227</v>
-      </c>
-      <c r="D1247" s="0" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E1247" s="0" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="0" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
       <c r="B1248" s="0" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="C1248" s="0" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="D1248" s="0" t="s">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="E1248" s="0" t="s">
-        <v>3232</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="0" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="B1249" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1249" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1249" s="0" t="s">
         <v>3226</v>
       </c>
-      <c r="C1249" s="0" t="s">
+      <c r="E1249" s="0" t="s">
         <v>3227</v>
-      </c>
-      <c r="D1249" s="0" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E1249" s="0" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="0" t="s">
-        <v>3234</v>
+        <v>3230</v>
       </c>
       <c r="B1250" s="0" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="C1250" s="0" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="D1250" s="0" t="s">
         <v>3231</v>
@@ -32259,132 +32336,132 @@
     </row>
     <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="0" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B1251" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1251" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1251" s="0" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E1251" s="0" t="s">
         <v>3235</v>
-      </c>
-      <c r="B1251" s="0" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C1251" s="0" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D1251" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="E1251" s="0" t="s">
-        <v>3237</v>
       </c>
     </row>
     <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1252" s="0" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1252" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1252" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1252" s="0" t="s">
+        <v>3237</v>
+      </c>
+      <c r="E1252" s="0" t="s">
         <v>3238</v>
-      </c>
-      <c r="B1252" s="0" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C1252" s="0" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D1252" s="0" t="s">
-        <v>3239</v>
-      </c>
-      <c r="E1252" s="0" t="s">
-        <v>3240</v>
       </c>
     </row>
     <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="0" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1253" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1253" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1253" s="0" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E1253" s="0" t="s">
         <v>3241</v>
-      </c>
-      <c r="B1253" s="0" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C1253" s="0" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D1253" s="0" t="s">
-        <v>3242</v>
-      </c>
-      <c r="E1253" s="0" t="s">
-        <v>3243</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="0" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="B1254" s="0" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="C1254" s="0" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="D1254" s="0" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="E1254" s="0" t="s">
-        <v>3246</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="0" t="s">
-        <v>3247</v>
+        <v>3243</v>
       </c>
       <c r="B1255" s="0" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="C1255" s="0" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="D1255" s="0" t="s">
+        <v>3244</v>
+      </c>
+      <c r="E1255" s="0" t="s">
         <v>3245</v>
-      </c>
-      <c r="E1255" s="0" t="s">
-        <v>3246</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="0" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1256" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1256" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1256" s="0" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E1256" s="0" t="s">
         <v>3248</v>
-      </c>
-      <c r="B1256" s="0" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C1256" s="0" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D1256" s="0" t="s">
-        <v>3249</v>
-      </c>
-      <c r="E1256" s="0" t="s">
-        <v>3250</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1257" s="0" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B1257" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1257" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1257" s="0" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E1257" s="0" t="s">
         <v>3251</v>
-      </c>
-      <c r="B1257" s="0" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C1257" s="0" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D1257" s="0" t="s">
-        <v>3252</v>
-      </c>
-      <c r="E1257" s="0" t="s">
-        <v>3253</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="0" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B1258" s="0" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1258" s="0" t="s">
         <v>3254</v>
-      </c>
-      <c r="B1258" s="0" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C1258" s="0" t="s">
-        <v>3227</v>
       </c>
       <c r="D1258" s="0" t="s">
         <v>3255</v>
@@ -32398,506 +32475,506 @@
         <v>3257</v>
       </c>
       <c r="B1259" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1259" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1259" s="0" t="s">
-        <v>3260</v>
+        <v>371</v>
       </c>
       <c r="E1259" s="0" t="s">
-        <v>3261</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1260" s="0" t="s">
-        <v>3262</v>
+        <v>3258</v>
       </c>
       <c r="B1260" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1260" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1260" s="0" t="s">
-        <v>371</v>
+        <v>1816</v>
       </c>
       <c r="E1260" s="0" t="s">
-        <v>372</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="0" t="s">
-        <v>3263</v>
+        <v>3259</v>
       </c>
       <c r="B1261" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1261" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1261" s="0" t="s">
-        <v>1816</v>
+        <v>3260</v>
       </c>
       <c r="E1261" s="0" t="s">
-        <v>1817</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1262" s="0" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B1262" s="0" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1262" s="0" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1262" s="0" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E1262" s="0" t="s">
         <v>3264</v>
-      </c>
-      <c r="B1262" s="0" t="s">
-        <v>3258</v>
-      </c>
-      <c r="C1262" s="0" t="s">
-        <v>3259</v>
-      </c>
-      <c r="D1262" s="0" t="s">
-        <v>3265</v>
-      </c>
-      <c r="E1262" s="0" t="s">
-        <v>3266</v>
       </c>
     </row>
     <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1263" s="0" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1263" s="0" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1263" s="0" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1263" s="0" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E1263" s="0" t="s">
         <v>3267</v>
-      </c>
-      <c r="B1263" s="0" t="s">
-        <v>3258</v>
-      </c>
-      <c r="C1263" s="0" t="s">
-        <v>3259</v>
-      </c>
-      <c r="D1263" s="0" t="s">
-        <v>3268</v>
-      </c>
-      <c r="E1263" s="0" t="s">
-        <v>3269</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1264" s="0" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="B1264" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1264" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1264" s="0" t="s">
-        <v>3271</v>
+        <v>2531</v>
       </c>
       <c r="E1264" s="0" t="s">
-        <v>3272</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="0" t="s">
-        <v>3273</v>
+        <v>3269</v>
       </c>
       <c r="B1265" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1265" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1265" s="0" t="s">
-        <v>2531</v>
+        <v>3270</v>
       </c>
       <c r="E1265" s="0" t="s">
-        <v>363</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="0" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="B1266" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1266" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1266" s="0" t="s">
-        <v>3275</v>
+        <v>1227</v>
       </c>
       <c r="E1266" s="0" t="s">
-        <v>3276</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="0" t="s">
-        <v>3277</v>
+        <v>3273</v>
       </c>
       <c r="B1267" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1267" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1267" s="0" t="s">
-        <v>1227</v>
+        <v>995</v>
       </c>
       <c r="E1267" s="0" t="s">
-        <v>1228</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="0" t="s">
-        <v>3278</v>
+        <v>3274</v>
       </c>
       <c r="B1268" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1268" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1268" s="0" t="s">
-        <v>995</v>
+        <v>1216</v>
       </c>
       <c r="E1268" s="0" t="s">
-        <v>996</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1269" s="0" t="s">
-        <v>3279</v>
+        <v>3275</v>
       </c>
       <c r="B1269" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1269" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1269" s="0" t="s">
-        <v>1216</v>
+        <v>1576</v>
       </c>
       <c r="E1269" s="0" t="s">
-        <v>1217</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="0" t="s">
-        <v>3280</v>
+        <v>3276</v>
       </c>
       <c r="B1270" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1270" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1270" s="0" t="s">
-        <v>1576</v>
+        <v>1617</v>
       </c>
       <c r="E1270" s="0" t="s">
-        <v>1577</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1271" s="0" t="s">
-        <v>3281</v>
+        <v>3277</v>
       </c>
       <c r="B1271" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C1271" s="0" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D1271" s="0" t="s">
-        <v>1617</v>
+        <v>3278</v>
       </c>
       <c r="E1271" s="0" t="s">
-        <v>1618</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="0" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B1272" s="0" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1272" s="0" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1272" s="0" t="s">
+        <v>3281</v>
+      </c>
+      <c r="E1272" s="0" t="s">
         <v>3282</v>
-      </c>
-      <c r="B1272" s="0" t="s">
-        <v>3258</v>
-      </c>
-      <c r="C1272" s="0" t="s">
-        <v>3259</v>
-      </c>
-      <c r="D1272" s="0" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E1272" s="0" t="s">
-        <v>3284</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="0" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B1273" s="0" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C1273" s="0" t="s">
         <v>3285</v>
       </c>
-      <c r="B1273" s="0" t="s">
-        <v>3258</v>
-      </c>
-      <c r="C1273" s="0" t="s">
-        <v>3259</v>
-      </c>
       <c r="D1273" s="0" t="s">
-        <v>3286</v>
+        <v>2117</v>
       </c>
       <c r="E1273" s="0" t="s">
-        <v>3287</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1274" s="0" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1274" s="0" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C1274" s="0" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1274" s="0" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1274" s="0" t="s">
         <v>3288</v>
-      </c>
-      <c r="B1274" s="0" t="s">
-        <v>3289</v>
-      </c>
-      <c r="C1274" s="0" t="s">
-        <v>3290</v>
-      </c>
-      <c r="D1274" s="0" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E1274" s="0" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1275" s="0" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="B1275" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1275" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1275" s="0" t="s">
-        <v>3292</v>
+        <v>3028</v>
       </c>
       <c r="E1275" s="0" t="s">
-        <v>3293</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1276" s="0" t="s">
-        <v>3294</v>
+        <v>3290</v>
       </c>
       <c r="B1276" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1276" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1276" s="0" t="s">
-        <v>3028</v>
+        <v>201</v>
       </c>
       <c r="E1276" s="0" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1277" s="0" t="s">
-        <v>3295</v>
+        <v>3291</v>
       </c>
       <c r="B1277" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1277" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1277" s="0" t="s">
-        <v>201</v>
+        <v>1288</v>
       </c>
       <c r="E1277" s="0" t="s">
-        <v>202</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1278" s="0" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
       <c r="B1278" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1278" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1278" s="0" t="s">
-        <v>1288</v>
+        <v>972</v>
       </c>
       <c r="E1278" s="0" t="s">
-        <v>945</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1279" s="0" t="s">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="B1279" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1279" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1279" s="0" t="s">
-        <v>972</v>
+        <v>2688</v>
       </c>
       <c r="E1279" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1280" s="0" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="B1280" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1280" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1280" s="0" t="s">
-        <v>2688</v>
+        <v>3295</v>
       </c>
       <c r="E1280" s="0" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1281" s="0" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="B1281" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1281" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1281" s="0" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="E1281" s="0" t="s">
-        <v>97</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1282" s="0" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="B1282" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1282" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1282" s="0" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="E1282" s="0" t="s">
-        <v>3303</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1283" s="0" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="B1283" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1283" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1283" s="0" t="s">
-        <v>3305</v>
+        <v>1262</v>
       </c>
       <c r="E1283" s="0" t="s">
-        <v>1722</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1284" s="0" t="s">
-        <v>3306</v>
+        <v>3302</v>
       </c>
       <c r="B1284" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1284" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1284" s="0" t="s">
-        <v>1262</v>
+        <v>3303</v>
       </c>
       <c r="E1284" s="0" t="s">
-        <v>1263</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1285" s="0" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="B1285" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1285" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1285" s="0" t="s">
-        <v>3308</v>
+        <v>1125</v>
       </c>
       <c r="E1285" s="0" t="s">
-        <v>3309</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1286" s="0" t="s">
-        <v>3310</v>
+        <v>3306</v>
       </c>
       <c r="B1286" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1286" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1286" s="0" t="s">
-        <v>1125</v>
+        <v>201</v>
       </c>
       <c r="E1286" s="0" t="s">
-        <v>1126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1287" s="0" t="s">
-        <v>3311</v>
+        <v>3307</v>
       </c>
       <c r="B1287" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1287" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1287" s="0" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="E1287" s="0" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="0" t="s">
-        <v>3312</v>
+        <v>3308</v>
       </c>
       <c r="B1288" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1288" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1288" s="0" t="s">
-        <v>305</v>
+        <v>1808</v>
       </c>
       <c r="E1288" s="0" t="s">
         <v>306</v>
@@ -32905,52 +32982,35 @@
     </row>
     <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1289" s="0" t="s">
-        <v>3313</v>
+        <v>3309</v>
       </c>
       <c r="B1289" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1289" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1289" s="0" t="s">
-        <v>1808</v>
+        <v>536</v>
       </c>
       <c r="E1289" s="0" t="s">
-        <v>306</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="0" t="s">
-        <v>3314</v>
+        <v>3310</v>
       </c>
       <c r="B1290" s="0" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C1290" s="0" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D1290" s="0" t="s">
-        <v>536</v>
+        <v>2023</v>
       </c>
       <c r="E1290" s="0" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1291" s="0" t="s">
-        <v>3315</v>
-      </c>
-      <c r="B1291" s="0" t="s">
-        <v>3289</v>
-      </c>
-      <c r="C1291" s="0" t="s">
-        <v>3290</v>
-      </c>
-      <c r="D1291" s="0" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E1291" s="0" t="s">
         <v>2024</v>
       </c>
     </row>
@@ -32976,7 +33036,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="124.49"/>
   </cols>
@@ -33095,10 +33155,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>3239</v>
+        <v>3234</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3240</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33455,10 +33515,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>3246</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33471,10 +33531,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33543,10 +33603,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>3236</v>
+        <v>3231</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>3237</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33591,10 +33651,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33663,7 +33723,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>3211</v>
+        <v>3206</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>199</v>
@@ -34103,10 +34163,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>3271</v>
+        <v>3266</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34255,7 +34315,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>3201</v>
+        <v>3196</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>803</v>
@@ -34335,10 +34395,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>3217</v>
+        <v>3212</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>3218</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34383,7 +34443,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>3300</v>
+        <v>3295</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>97</v>
@@ -34559,10 +34619,10 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>3231</v>
+        <v>3226</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>3232</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34655,10 +34715,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>3144</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34839,7 +34899,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>3041</v>
@@ -35103,10 +35163,10 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35263,10 +35323,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>3242</v>
+        <v>3237</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35319,10 +35379,10 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>3287</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35399,10 +35459,10 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35503,10 +35563,10 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>3220</v>
+        <v>3215</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>3221</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35583,7 +35643,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="B326" s="0" t="s">
         <v>1146</v>
@@ -35703,10 +35763,10 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35831,10 +35891,10 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36159,10 +36219,10 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36439,10 +36499,10 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36799,10 +36859,10 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36847,10 +36907,10 @@
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37063,10 +37123,10 @@
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>3302</v>
+        <v>3297</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37351,10 +37411,10 @@
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37527,10 +37587,10 @@
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>3308</v>
+        <v>3303</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37695,10 +37755,10 @@
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>3249</v>
+        <v>3244</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>3250</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37735,10 +37795,10 @@
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38111,10 +38171,10 @@
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>3214</v>
+        <v>3209</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>3215</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38223,7 +38283,7 @@
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>1722</v>
@@ -38231,10 +38291,10 @@
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>3223</v>
+        <v>3218</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>3224</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38271,10 +38331,10 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>3253</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38383,10 +38443,10 @@
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>3173</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38575,10 +38635,10 @@
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>3189</v>
+        <v>3184</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>3190</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38887,10 +38947,10 @@
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>3192</v>
+        <v>3187</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>3193</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39207,18 +39267,18 @@
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>3205</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39879,10 +39939,10 @@
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39935,15 +39995,15 @@
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>3228</v>
+        <v>3223</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>3229</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>3209</v>
+        <v>3204</v>
       </c>
       <c r="B871" s="0" t="s">
         <v>151</v>
@@ -40487,7 +40547,7 @@
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>3176</v>
+        <v>3171</v>
       </c>
       <c r="B939" s="0" t="s">
         <v>285</v>
@@ -40551,10 +40611,10 @@
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>3197</v>
+        <v>3192</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>3198</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40695,10 +40755,10 @@
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40720,7 +40780,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -40739,7 +40799,7 @@
       <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
   </cols>
@@ -40751,62 +40811,62 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3317</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3320</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>3321</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>3325</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>3326</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40816,32 +40876,32 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>3329</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>3330</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3331</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>3332</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>3333</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40851,27 +40911,27 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>3335</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>3336</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40881,32 +40941,32 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>3342</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>3343</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>3344</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40916,17 +40976,17 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>3345</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>3346</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>3347</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40941,7 +41001,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>3348</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40951,32 +41011,32 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>3349</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>3350</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40986,7 +41046,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>3355</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41001,7 +41061,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41011,37 +41071,37 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>3359</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>3360</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>3362</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>3363</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41051,32 +41111,32 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>3364</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>3367</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>3368</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41086,37 +41146,37 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>3370</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>3371</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>3372</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>3373</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>3374</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>3375</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>3376</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41126,98 +41186,98 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>3377</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>3378</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>3379</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>3380</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>3384</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>3385</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>3386</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>3387</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>3388</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>3389</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>3390</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>3391</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>3392</v>
+        <v>3387</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
